--- a/allresults.xlsx
+++ b/allresults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edvin\Projects\CNN-Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABE5309-600B-416B-83A2-30FCF2FEB5C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0856B9B4-361D-4873-B8E2-EA952FB08F2F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B122661-1E40-4ADD-AFDF-87996EF71E99}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="124">
   <si>
     <t xml:space="preserve">essays: 1246 </t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t xml:space="preserve">  0.548 </t>
+  </si>
+  <si>
+    <t>layers: 3</t>
   </si>
 </sst>
 </file>
@@ -753,13 +756,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C392C3-1AFC-4065-BE44-FE070BE91727}">
   <dimension ref="A2:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.140625" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
@@ -795,6 +799,9 @@
       <c r="I2" t="s">
         <v>5</v>
       </c>
+      <c r="K2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
